--- a/docs/cr-core-results.xlsx
+++ b/docs/cr-core-results.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -276,7 +276,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -302,7 +302,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -328,7 +328,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -363,7 +363,7 @@
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -391,7 +391,7 @@
     <t>Observation.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>Observation.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -526,10 +526,10 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -544,7 +544,7 @@
     <t>Observation.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>Observation.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -595,7 +595,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Immunization], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://build.fhir.org/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -756,7 +756,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[https://build.fhir.org/ig/:org:/:repo:/StructureDefinition/cr-core-patient]]}
+    <t xml:space="preserve">Reference(https://esource-consortium.github.io/fhir-clinical-research/cr-core-patient)
 </t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://build.fhir.org/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -810,7 +810,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -845,8 +845,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}Timing {[]} {[]}instant {[]} {[]}</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -855,7 +855,7 @@
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://build.fhir.org/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -876,7 +876,7 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -886,7 +886,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://build.fhir.org/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -901,7 +901,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -929,8 +929,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}boolean {[]} {[]}integer {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -939,7 +939,7 @@
     <t>The Laboratory result value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://build.fhir.org/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1030,7 +1030,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1062,7 +1062,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://build.fhir.org/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1116,7 +1116,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceMetric]]}
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1313,7 +1313,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence]]}
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1354,7 +1354,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://build.fhir.org/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://build.fhir.org/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1366,7 +1366,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy], CanonicalType[http://hl7.org/fhir/StructureDefinition/Media], CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence]]}
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://build.fhir.org/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1391,7 +1391,7 @@
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://build.fhir.org/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -1447,7 +1447,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://build.fhir.org/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1528,67 +1528,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1624,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
